--- a/results/I3_N5_M2_T45_C200_DepLowerLeft_s1_P1_res.xlsx
+++ b/results/I3_N5_M2_T45_C200_DepLowerLeft_s1_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>625.8252838649533</v>
+        <v>841.4728792860783</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01199984550476074</v>
+        <v>0.006000041961669922</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.30000008383182</v>
+        <v>25.81760345874363</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.64992685920805</v>
+        <v>7.549255196917892</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.86521064033354</v>
+        <v>7.20453102425245</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>500.249999999996</v>
+        <v>576</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>92.06</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -631,7 +631,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>40.31430901573738</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31.60181147454999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>31.60181147454999</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>32.48909622152298</v>
+        <v>17.48909622152298</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>37.44700908884931</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>42.29065144902805</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1043,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1074,10 +1074,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1088,26 +1088,12 @@
         <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1210,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>121.7200000000003</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8">
@@ -1221,7 +1207,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>117.2400000000003</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1218,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>122.4650000000003</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10">
@@ -1243,7 +1229,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>118.4450000000003</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11">
@@ -1254,7 +1240,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>116.3100000000003</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12">
@@ -1265,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>253.8349999999997</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
@@ -1276,7 +1262,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>251.0049999999997</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
@@ -1287,7 +1273,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>244.0249999999997</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15">
@@ -1298,7 +1284,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>252.9399999999997</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16">
@@ -1309,7 +1295,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>248.3199999999991</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17">
@@ -1320,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>206.79</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18">
@@ -1331,7 +1317,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>205.78</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19">
@@ -1342,7 +1328,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>197.375</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20">
@@ -1353,7 +1339,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>201.415</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21">
@@ -1364,7 +1350,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>199.0549999999994</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22">
@@ -1375,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>75.89000000000051</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
@@ -1386,7 +1372,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>75.69000000000051</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24">
@@ -1397,7 +1383,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>80.2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
@@ -1408,7 +1394,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>80.25500000000051</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26">
@@ -1419,7 +1405,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>75.56500000000051</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27">
@@ -1430,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>177.6150000000009</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28">
@@ -1441,7 +1427,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>171.8100000000009</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29">
@@ -1452,7 +1438,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>178.4650000000009</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30">
@@ -1463,7 +1449,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>177.2</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31">
@@ -1474,7 +1460,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>179.1300000000009</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32">
@@ -1485,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>177.6150000000009</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33">
@@ -1496,7 +1482,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>171.8100000000009</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34">
@@ -1507,7 +1493,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>178.4650000000009</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35">
@@ -1518,7 +1504,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>177.2</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36">
@@ -1529,7 +1515,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>179.1300000000009</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37">
@@ -1540,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>253.8349999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1551,7 +1537,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>251.0049999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1562,7 +1548,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>244.0249999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1573,7 +1559,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>252.9399999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1584,7 +1570,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>248.3199999999991</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1631,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -1642,7 +1628,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -1653,7 +1639,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -1664,7 +1650,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
@@ -1675,7 +1661,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
@@ -1686,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>53.83499999999972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1697,7 +1683,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>51.00499999999971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1708,7 +1694,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>44.02499999999972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1719,7 +1705,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>52.93999999999971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1730,7 +1716,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>48.31999999999914</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1777,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>5.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1788,7 +1774,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>10.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1799,7 +1785,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>14.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1810,7 +1796,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>8.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1821,7 +1807,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>7.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1942,7 +1928,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1953,7 +1939,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1964,7 +1950,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1975,7 +1961,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1986,7 +1972,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1997,7 +1983,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -2008,7 +1994,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -2019,7 +2005,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2030,7 +2016,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -2041,7 +2027,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2055,7 +2041,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2082,7 +2068,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2093,7 +2079,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2104,7 +2090,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2115,7 +2101,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2126,7 +2112,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2140,7 +2126,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2151,20 +2137,9 @@
         <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
         <v>1</v>
       </c>
     </row>
